--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1741362.156130654</v>
+        <v>-1743938.477611895</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>99.59933623926791</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>128.5906918204595</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.879951040058207</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>54.01935644120235</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.905671546548605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>306.4487213473628</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>331.9937280666932</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1032,7 +1032,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494236</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>15.47046059858645</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>112.5501649359372</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>382.7016047130191</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>215.5367273797001</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.73119991066018</v>
+        <v>26.39336765719249</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>65.99480013030555</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>116.2873251119339</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>40.62253010341743</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>140.3829797864967</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>117.6579322793572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652685</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4307,16 +4307,16 @@
         <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>821.1650657389509</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>821.1650657389509</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>313.6498276407344</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>313.6498276407344</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>313.6498276407344</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>165.7367340583413</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>866.3219993119199</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T4" t="n">
-        <v>856.3162704770223</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U4" t="n">
-        <v>567.2134036026658</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="V4" t="n">
-        <v>567.2134036026658</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="W4" t="n">
-        <v>567.2134036026658</v>
+        <v>541.6393785387518</v>
       </c>
       <c r="X4" t="n">
-        <v>567.2134036026658</v>
+        <v>313.6498276407344</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.2134036026658</v>
+        <v>313.6498276407344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1881.708680670283</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>2621.077176004518</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734405</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,25 +4659,25 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.9544330261738</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>905.2602779408242</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>905.2602779408242</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452389</v>
+        <v>905.2602779408242</v>
       </c>
       <c r="U7" t="n">
-        <v>495.6028978564135</v>
+        <v>905.2602779408242</v>
       </c>
       <c r="V7" t="n">
-        <v>495.6028978564135</v>
+        <v>905.2602779408242</v>
       </c>
       <c r="W7" t="n">
-        <v>495.6028978564135</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="X7" t="n">
-        <v>495.6028978564135</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>495.6028978564135</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.035106955552</v>
+        <v>1892.96366001348</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.07259001514</v>
+        <v>1524.001143073068</v>
       </c>
       <c r="D8" t="n">
-        <v>1496.07259001514</v>
+        <v>1165.735444466318</v>
       </c>
       <c r="E8" t="n">
-        <v>1110.284337416896</v>
+        <v>1165.735444466318</v>
       </c>
       <c r="F8" t="n">
-        <v>699.2984326272881</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>284.2259824722846</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2656.568750250372</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2283.102991989292</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.634947019673</v>
+        <v>1892.96366001348</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.2677753977071</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C10" t="n">
         <v>384.3315924698002</v>
@@ -4951,61 +4951,61 @@
         <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>842.3706422720635</v>
+        <v>894.2270384876867</v>
       </c>
       <c r="U10" t="n">
-        <v>553.2677753977071</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="V10" t="n">
-        <v>553.2677753977071</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="W10" t="n">
-        <v>553.2677753977071</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="X10" t="n">
-        <v>553.2677753977071</v>
+        <v>605.1241716133303</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.2677753977071</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.700204330166</v>
+        <v>2079.600600930059</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674364</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>134.8495217382925</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2261.070983590888</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,22 +6646,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6792,10 +6792,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656825</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438403</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,10 +7123,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,16 +7807,16 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380722</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265.6735555317396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>226.0923498002234</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>143.541096982873</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,25 +22750,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.7496688902395</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>175.9314798055731</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.031485871339</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>101.1181252153544</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.1398665102882</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.64330621514811</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>111.7546635373313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>63.36835372228737</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-6.130651669665873e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045144</v>
+        <v>99467.00901045148</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363158</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3456.426522020452</v>
+        <v>3456.426522020504</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405268</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
+        <v>22817.55530496088</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496084</v>
       </c>
-      <c r="L4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22817.55530496086</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496084</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496083</v>
-      </c>
       <c r="P4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1340668.103800555</v>
+        <v>-1341062.924741708</v>
       </c>
       <c r="C6" t="n">
-        <v>-78374.41918580337</v>
+        <v>-78374.4191858033</v>
       </c>
       <c r="D6" t="n">
-        <v>-78374.41918580337</v>
+        <v>-78374.41918580345</v>
       </c>
       <c r="E6" t="n">
-        <v>-320289.697719629</v>
+        <v>-320324.4356450652</v>
       </c>
       <c r="F6" t="n">
-        <v>5122.764087726464</v>
+        <v>5088.026162290786</v>
       </c>
       <c r="G6" t="n">
-        <v>5122.764087726435</v>
+        <v>5088.026162290756</v>
       </c>
       <c r="H6" t="n">
-        <v>5122.76408772642</v>
+        <v>5088.026162290756</v>
       </c>
       <c r="I6" t="n">
-        <v>5122.764087726435</v>
+        <v>5088.026162290727</v>
       </c>
       <c r="J6" t="n">
-        <v>-212408.438309551</v>
+        <v>-212443.1762349867</v>
       </c>
       <c r="K6" t="n">
-        <v>-22253.12367286562</v>
+        <v>-22253.12367286548</v>
       </c>
       <c r="L6" t="n">
-        <v>-2825.405679233852</v>
+        <v>-2825.405679233809</v>
       </c>
       <c r="M6" t="n">
-        <v>-87880.43361474569</v>
+        <v>-87880.43361474568</v>
       </c>
       <c r="N6" t="n">
         <v>-2825.405679233736</v>
       </c>
       <c r="O6" t="n">
-        <v>-2825.405679233736</v>
+        <v>-2825.405679233721</v>
       </c>
       <c r="P6" t="n">
-        <v>-22253.12367286552</v>
+        <v>-22253.12367286542</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>209.6432777296206</v>
+        <v>43.61746947059612</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>58.82417042364472</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>54.24421058936036</v>
       </c>
     </row>
     <row r="6">
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.620037437533028e-12</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>73.46169207146092</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>173.6616732696757</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>24.17444102869234</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>79.07103700762033</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>141.817749365509</v>
+        <v>193.1555816189767</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970261</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525818</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
